--- a/spliced/falling/2023-03-25_17-59-17/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-59-17/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-3.058035731315613</v>
+        <v>-3.092723965644837</v>
       </c>
       <c r="D2" t="n">
-        <v>6.997355103492737</v>
+        <v>7.026303648948669</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.73139876127243</v>
+        <v>-1.051015242934228</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1035416573286056</v>
+        <v>-0.0108428578823804</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.064446285367012</v>
+        <v>-0.0038179077673703</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0453567430377006</v>
+        <v>-0.0216857157647609</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-3.209980964660648</v>
+        <v>-3.058035731315613</v>
       </c>
       <c r="D3" t="n">
-        <v>6.448858737945555</v>
+        <v>6.997355103492737</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.419030904769898</v>
+        <v>-1.73139876127243</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0149661982432007</v>
+        <v>-0.1035416573286056</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1327104717493057</v>
+        <v>-0.064446285367012</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.0044287731871008</v>
+        <v>-0.0453567430377006</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-4.36844623088837</v>
+        <v>-3.209980964660648</v>
       </c>
       <c r="D4" t="n">
-        <v>5.834601938724516</v>
+        <v>6.448858737945555</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.828514367341996</v>
+        <v>-2.419030904769898</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0374154970049858</v>
+        <v>-0.0149661982432007</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2890919744968414</v>
+        <v>-0.1327104717493057</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0471893399953842</v>
+        <v>-0.0044287731871008</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-5.497431874275209</v>
+        <v>-4.36844623088837</v>
       </c>
       <c r="D5" t="n">
-        <v>4.208867311477659</v>
+        <v>5.834601938724516</v>
       </c>
       <c r="E5" t="n">
-        <v>-4.62852203845978</v>
+        <v>-2.828514367341996</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1467603743076324</v>
+        <v>-0.0374154970049858</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.5923865437507629</v>
+        <v>-0.2890919744968414</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0804814994335174</v>
+        <v>-0.0471893399953842</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-4.317517697811123</v>
+        <v>-5.497431874275209</v>
       </c>
       <c r="D6" t="n">
-        <v>3.698737800121307</v>
+        <v>4.208867311477659</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.781835377216336</v>
+        <v>-4.62852203845978</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2122756689786911</v>
+        <v>-0.1467603743076324</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1849394589662552</v>
+        <v>-0.5923865437507629</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.8903360962867737</v>
+        <v>-0.0804814994335174</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-2.994236230850219</v>
+        <v>-4.317517697811123</v>
       </c>
       <c r="D7" t="n">
-        <v>3.967291116714478</v>
+        <v>3.698737800121307</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.983362078666686</v>
+        <v>-3.781835377216336</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4007275998592376</v>
+        <v>-0.2122756689786911</v>
       </c>
       <c r="G7" t="n">
-        <v>1.753641366958618</v>
+        <v>0.1849394589662552</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.559844374656677</v>
+        <v>-0.8903360962867737</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19.28501731157317</v>
+        <v>-2.994236230850219</v>
       </c>
       <c r="D8" t="n">
-        <v>7.939440250396752</v>
+        <v>3.967291116714478</v>
       </c>
       <c r="E8" t="n">
-        <v>2.441468685865424</v>
+        <v>-1.983362078666686</v>
       </c>
       <c r="F8" t="n">
-        <v>0.124921940267086</v>
+        <v>-0.4007275998592376</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.203251838684082</v>
+        <v>1.753641366958618</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.790293335914612</v>
+        <v>-1.559844374656677</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>40.94155550003035</v>
+        <v>19.28501731157317</v>
       </c>
       <c r="D9" t="n">
-        <v>11.31398761272427</v>
+        <v>7.939440250396752</v>
       </c>
       <c r="E9" t="n">
-        <v>5.767251133918734</v>
+        <v>2.441468685865424</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.1690434217453</v>
+        <v>0.124921940267086</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9421069025993348</v>
+        <v>-1.203251838684082</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.6352998614311218</v>
+        <v>-1.790293335914612</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-2.696913838386517</v>
+        <v>40.94155550003035</v>
       </c>
       <c r="D10" t="n">
-        <v>3.673633515834829</v>
+        <v>11.31398761272427</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.52291007339954</v>
+        <v>5.767251133918734</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1931861340999603</v>
+        <v>-1.1690434217453</v>
       </c>
       <c r="G10" t="n">
-        <v>-3.830125093460083</v>
+        <v>0.9421069025993348</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.3234531581401825</v>
+        <v>-0.6352998614311218</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.028153419494632</v>
+        <v>-2.696913838386517</v>
       </c>
       <c r="D11" t="n">
-        <v>9.004679679870595</v>
+        <v>3.673633515834829</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.501968502998354</v>
+        <v>-1.52291007339954</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0713185146450996</v>
+        <v>0.1931861340999603</v>
       </c>
       <c r="G11" t="n">
-        <v>3.081967830657959</v>
+        <v>-3.830125093460083</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0597120784223079</v>
+        <v>-0.3234531581401825</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.85636705160141</v>
+        <v>2.028153419494632</v>
       </c>
       <c r="D12" t="n">
-        <v>6.616586804389952</v>
+        <v>9.004679679870595</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.9499017149209981</v>
+        <v>-0.501968502998354</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3149010241031647</v>
+        <v>-0.0713185146450996</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4051563739776611</v>
+        <v>3.081967830657959</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1343903541564941</v>
+        <v>0.0597120784223079</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.147812247276305</v>
+        <v>2.85636705160141</v>
       </c>
       <c r="D13" t="n">
-        <v>6.509400129318237</v>
+        <v>6.616586804389952</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.382609903812409</v>
+        <v>-0.9499017149209981</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1139263659715652</v>
+        <v>0.3149010241031647</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0247400421649217</v>
+        <v>0.4051563739776611</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.0100792767480015</v>
+        <v>0.1343903541564941</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.557738900184631</v>
+        <v>2.147812247276305</v>
       </c>
       <c r="D14" t="n">
-        <v>7.761633634567263</v>
+        <v>6.509400129318237</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.5445335209369638</v>
+        <v>-1.382609903812409</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.06963863968849179</v>
+        <v>0.1139263659715652</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.5192354321479797</v>
+        <v>0.0247400421649217</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2390010207891464</v>
+        <v>-0.0100792767480015</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.976663112640384</v>
+        <v>1.557738900184631</v>
       </c>
       <c r="D15" t="n">
-        <v>7.559864521026608</v>
+        <v>7.761633634567263</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.4916380643844624</v>
+        <v>-0.5445335209369638</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0478002056479454</v>
+        <v>-0.06963863968849179</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3094032406806946</v>
+        <v>-0.5192354321479797</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.5314527750015259</v>
+        <v>0.2390010207891464</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.532021999359131</v>
+        <v>1.976663112640384</v>
       </c>
       <c r="D16" t="n">
-        <v>6.69653069972992</v>
+        <v>7.559864521026608</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.035512745380402</v>
+        <v>-0.4916380643844624</v>
       </c>
       <c r="F16" t="n">
-        <v>0.078801617026329</v>
+        <v>0.0478002056479454</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1148426681756973</v>
+        <v>0.3094032406806946</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0529925599694252</v>
+        <v>-0.5314527750015259</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.414215922355652</v>
+        <v>2.532021999359131</v>
       </c>
       <c r="D17" t="n">
-        <v>6.828933358192444</v>
+        <v>6.69653069972992</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.054423272609711</v>
+        <v>-1.035512745380402</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1204931661486625</v>
+        <v>0.078801617026329</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.0858265683054924</v>
+        <v>0.1148426681756973</v>
       </c>
       <c r="H17" t="n">
-        <v>0.090408056974411</v>
+        <v>0.0529925599694252</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2.389017283916475</v>
+        <v>2.414215922355652</v>
       </c>
       <c r="D18" t="n">
-        <v>6.962057828903196</v>
+        <v>6.828933358192444</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.006362080574036</v>
+        <v>-1.054423272609711</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0691804885864257</v>
+        <v>-0.1204931661486625</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07803803682327271</v>
+        <v>-0.0858265683054924</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0291688162833452</v>
+        <v>0.090408056974411</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2.858325004577636</v>
+        <v>2.389017283916475</v>
       </c>
       <c r="D19" t="n">
-        <v>6.617825984954833</v>
+        <v>6.962057828903196</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.9791393280029302</v>
+        <v>-1.006362080574036</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0143553335219621</v>
+        <v>-0.0691804885864257</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0123700210824608</v>
+        <v>0.07803803682327271</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.09071348607540131</v>
+        <v>-0.0291688162833452</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2.697556555271147</v>
+        <v>2.858325004577636</v>
       </c>
       <c r="D20" t="n">
-        <v>6.472295284271239</v>
+        <v>6.617825984954833</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.139101475477219</v>
+        <v>-0.9791393280029302</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0204639863222837</v>
+        <v>-0.0143553335219621</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0181732401251792</v>
+        <v>0.0123700210824608</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0502436682581901</v>
+        <v>-0.09071348607540131</v>
       </c>
     </row>
     <row r="21">
@@ -1017,50 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2.491997003555297</v>
+        <v>2.697556555271147</v>
       </c>
       <c r="D21" t="n">
-        <v>6.562706351280213</v>
+        <v>6.472295284271239</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.225150167942047</v>
+        <v>-1.139101475477219</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0256563406437635</v>
+        <v>0.0204639863222837</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0372627787292003</v>
+        <v>0.0181732401251792</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0050396383740007</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>2.430862486362457</v>
-      </c>
-      <c r="D22" t="n">
-        <v>6.55536675453186</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-1.168295040726662</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.0029016099870204</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.0279470849782228</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-0.0612392425537109</v>
+        <v>0.0502436682581901</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_17-59-17/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-59-17/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-3.092723965644837</v>
+        <v>-2.896898627281189</v>
       </c>
       <c r="D2" t="n">
-        <v>7.026303648948669</v>
+        <v>7.169353723526001</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.051015242934228</v>
+        <v>-0.4825034886598586</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0108428578823804</v>
+        <v>0.0609338097274303</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0038179077673703</v>
+        <v>0.0045814891345798</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0216857157647609</v>
+        <v>0.0629191175103187</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-3.058035731315613</v>
+        <v>-3.050878047943115</v>
       </c>
       <c r="D3" t="n">
-        <v>6.997355103492737</v>
+        <v>7.165829300880432</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.73139876127243</v>
+        <v>-0.3550609424710275</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1035416573286056</v>
+        <v>0.0303905457258224</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.064446285367012</v>
+        <v>0.0102319931611418</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.0453567430377006</v>
+        <v>0.0383317954838275</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-3.209980964660648</v>
+        <v>-3.056754767894745</v>
       </c>
       <c r="D4" t="n">
-        <v>6.448858737945555</v>
+        <v>7.225212574005127</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.419030904769898</v>
+        <v>-0.4760921187698841</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0149661982432007</v>
+        <v>-0.0080939643085002</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1327104717493057</v>
+        <v>0.0009162978967650999</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0044287731871008</v>
+        <v>-0.0238237436860799</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-4.36844623088837</v>
+        <v>-3.037489891052246</v>
       </c>
       <c r="D5" t="n">
-        <v>5.834601938724516</v>
+        <v>7.236634731292725</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.828514367341996</v>
+        <v>-0.4997432827949525</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0374154970049858</v>
+        <v>0.0160352122038602</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2890919744968414</v>
+        <v>-0.0207694191485643</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0471893399953842</v>
+        <v>0.0113010071218013</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-5.497431874275209</v>
+        <v>-2.916959762573243</v>
       </c>
       <c r="D6" t="n">
-        <v>4.208867311477659</v>
+        <v>7.203977525234222</v>
       </c>
       <c r="E6" t="n">
-        <v>-4.62852203845978</v>
+        <v>-0.616998553276062</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1467603743076324</v>
+        <v>-0.0288633834570646</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5923865437507629</v>
+        <v>-0.00137444678694</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.0804814994335174</v>
+        <v>-0.0123700210824608</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-4.317517697811123</v>
+        <v>-3.009585857391357</v>
       </c>
       <c r="D7" t="n">
-        <v>3.698737800121307</v>
+        <v>7.19498348236084</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.781835377216336</v>
+        <v>-0.6860059350728989</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2122756689786911</v>
+        <v>0.0059559359215199</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1849394589662552</v>
+        <v>0.0401643887162208</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.8903360962867737</v>
+        <v>0.0155770638957619</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-2.994236230850219</v>
+        <v>-2.86443132162094</v>
       </c>
       <c r="D8" t="n">
-        <v>3.967291116714478</v>
+        <v>7.121285438537598</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.983362078666686</v>
+        <v>-0.5276834592223163</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.4007275998592376</v>
+        <v>0.0117591563612222</v>
       </c>
       <c r="G8" t="n">
-        <v>1.753641366958618</v>
+        <v>0.0131336031481623</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.559844374656677</v>
+        <v>0.0174096599221229</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19.28501731157317</v>
+        <v>-2.889585494995118</v>
       </c>
       <c r="D9" t="n">
-        <v>7.939440250396752</v>
+        <v>7.118069887161255</v>
       </c>
       <c r="E9" t="n">
-        <v>2.441468685865424</v>
+        <v>-0.4351722449064255</v>
       </c>
       <c r="F9" t="n">
-        <v>0.124921940267086</v>
+        <v>0.0245873257517814</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.203251838684082</v>
+        <v>0.0372627787292003</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.790293335914612</v>
+        <v>0.028557950630784</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>40.94155550003035</v>
+        <v>-3.056696653366089</v>
       </c>
       <c r="D10" t="n">
-        <v>11.31398761272427</v>
+        <v>7.102567493915558</v>
       </c>
       <c r="E10" t="n">
-        <v>5.767251133918734</v>
+        <v>-0.6014280728995802</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.1690434217453</v>
+        <v>0.0038179077673703</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9421069025993348</v>
+        <v>0.0119118718430399</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.6352998614311218</v>
+        <v>-0.0335975885391235</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-2.696913838386517</v>
+        <v>-3.092723965644837</v>
       </c>
       <c r="D11" t="n">
-        <v>3.673633515834829</v>
+        <v>7.026303648948669</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.52291007339954</v>
+        <v>-1.051015242934228</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1931861340999603</v>
+        <v>-0.0108428578823804</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.830125093460083</v>
+        <v>-0.0038179077673703</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.3234531581401825</v>
+        <v>-0.0216857157647609</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.028153419494632</v>
+        <v>-3.058035731315613</v>
       </c>
       <c r="D12" t="n">
-        <v>9.004679679870595</v>
+        <v>6.997355103492737</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.501968502998354</v>
+        <v>-1.73139876127243</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.0713185146450996</v>
+        <v>-0.1035416573286056</v>
       </c>
       <c r="G12" t="n">
-        <v>3.081967830657959</v>
+        <v>-0.064446285367012</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0597120784223079</v>
+        <v>-0.0453567430377006</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.85636705160141</v>
+        <v>-3.209980964660648</v>
       </c>
       <c r="D13" t="n">
-        <v>6.616586804389952</v>
+        <v>6.448858737945555</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.9499017149209981</v>
+        <v>-2.419030904769898</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3149010241031647</v>
+        <v>-0.0149661982432007</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4051563739776611</v>
+        <v>-0.1327104717493057</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1343903541564941</v>
+        <v>-0.0044287731871008</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.147812247276305</v>
+        <v>-4.36844623088837</v>
       </c>
       <c r="D14" t="n">
-        <v>6.509400129318237</v>
+        <v>5.834601938724516</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.382609903812409</v>
+        <v>-2.828514367341996</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1139263659715652</v>
+        <v>-0.0374154970049858</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0247400421649217</v>
+        <v>-0.2890919744968414</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.0100792767480015</v>
+        <v>-0.0471893399953842</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.557738900184631</v>
+        <v>-5.497431874275209</v>
       </c>
       <c r="D15" t="n">
-        <v>7.761633634567263</v>
+        <v>4.208867311477659</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.5445335209369638</v>
+        <v>-4.62852203845978</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.06963863968849179</v>
+        <v>-0.1467603743076324</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.5192354321479797</v>
+        <v>-0.5923865437507629</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2390010207891464</v>
+        <v>-0.0804814994335174</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.976663112640384</v>
+        <v>-4.317517697811123</v>
       </c>
       <c r="D16" t="n">
-        <v>7.559864521026608</v>
+        <v>3.698737800121307</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.4916380643844624</v>
+        <v>-3.781835377216336</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0478002056479454</v>
+        <v>-0.2122756689786911</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3094032406806946</v>
+        <v>0.1849394589662552</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.5314527750015259</v>
+        <v>-0.8903360962867737</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.532021999359131</v>
+        <v>-2.994236230850219</v>
       </c>
       <c r="D17" t="n">
-        <v>6.69653069972992</v>
+        <v>3.967291116714478</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.035512745380402</v>
+        <v>-1.983362078666686</v>
       </c>
       <c r="F17" t="n">
-        <v>0.078801617026329</v>
+        <v>-0.4007275998592376</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1148426681756973</v>
+        <v>1.753641366958618</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0529925599694252</v>
+        <v>-1.559844374656677</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2.414215922355652</v>
+        <v>19.28501731157317</v>
       </c>
       <c r="D18" t="n">
-        <v>6.828933358192444</v>
+        <v>7.939440250396752</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.054423272609711</v>
+        <v>2.441468685865424</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1204931661486625</v>
+        <v>0.124921940267086</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.0858265683054924</v>
+        <v>-1.203251838684082</v>
       </c>
       <c r="H18" t="n">
-        <v>0.090408056974411</v>
+        <v>-1.790293335914612</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2.389017283916475</v>
+        <v>40.94155550003035</v>
       </c>
       <c r="D19" t="n">
-        <v>6.962057828903196</v>
+        <v>11.31398761272427</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.006362080574036</v>
+        <v>5.767251133918734</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0691804885864257</v>
+        <v>-1.1690434217453</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07803803682327271</v>
+        <v>0.9421069025993348</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.0291688162833452</v>
+        <v>-0.6352998614311218</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2.858325004577636</v>
+        <v>-2.696913838386517</v>
       </c>
       <c r="D20" t="n">
-        <v>6.617825984954833</v>
+        <v>3.673633515834829</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.9791393280029302</v>
+        <v>-1.52291007339954</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0143553335219621</v>
+        <v>0.1931861340999603</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0123700210824608</v>
+        <v>-3.830125093460083</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.09071348607540131</v>
+        <v>-0.3234531581401825</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>2.028153419494632</v>
+      </c>
+      <c r="D21" t="n">
+        <v>9.004679679870595</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.501968502998354</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.0713185146450996</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.081967830657959</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0597120784223079</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2.85636705160141</v>
+      </c>
+      <c r="D22" t="n">
+        <v>6.616586804389952</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.9499017149209981</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.3149010241031647</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.4051563739776611</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.1343903541564941</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2.147812247276305</v>
+      </c>
+      <c r="D23" t="n">
+        <v>6.509400129318237</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-1.382609903812409</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.1139263659715652</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0247400421649217</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.0100792767480015</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1.557738900184631</v>
+      </c>
+      <c r="D24" t="n">
+        <v>7.761633634567263</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.5445335209369638</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.06963863968849179</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.5192354321479797</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.2390010207891464</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1.976663112640384</v>
+      </c>
+      <c r="D25" t="n">
+        <v>7.559864521026608</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.4916380643844624</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0478002056479454</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.3094032406806946</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.5314527750015259</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2.532021999359131</v>
+      </c>
+      <c r="D26" t="n">
+        <v>6.69653069972992</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-1.035512745380402</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.078801617026329</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1148426681756973</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0529925599694252</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2.414215922355652</v>
+      </c>
+      <c r="D27" t="n">
+        <v>6.828933358192444</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-1.054423272609711</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.1204931661486625</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.0858265683054924</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.090408056974411</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2.389017283916475</v>
+      </c>
+      <c r="D28" t="n">
+        <v>6.962057828903196</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-1.006362080574036</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.0691804885864257</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.07803803682327271</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.0291688162833452</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2.858325004577636</v>
+      </c>
+      <c r="D29" t="n">
+        <v>6.617825984954833</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-0.9791393280029302</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.0143553335219621</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0123700210824608</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.09071348607540131</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
         <v>2.697556555271147</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D30" t="n">
         <v>6.472295284271239</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E30" t="n">
         <v>-1.139101475477219</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F30" t="n">
         <v>0.0204639863222837</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G30" t="n">
         <v>0.0181732401251792</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H30" t="n">
         <v>0.0502436682581901</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2.491997003555297</v>
+      </c>
+      <c r="D31" t="n">
+        <v>6.562706351280213</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-1.225150167942047</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0256563406437635</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0372627787292003</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0050396383740007</v>
       </c>
     </row>
   </sheetData>
